--- a/2021.12.18/Search_Naver.xlsx
+++ b/2021.12.18/Search_Naver.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:19.417359</t>
+          <t>2021-12-19T16:37:27.506292</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:20.761329</t>
+          <t>2021-12-19T16:37:28.790070</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>크리스마스 대체공휴일</t>
+          <t>크리스마스 홈파티</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>크리스마스 소품</t>
+          <t>크리스마스 대체공휴일</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>크리스마스 데이트</t>
+          <t>크리스마스 소품</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>크리스마스 오르골</t>
+          <t>크리스마스 데이트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>크리스마스 리스</t>
+          <t>크리스마스 오르골</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>크리스마스 옷</t>
+          <t>크리스마스 리스</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:22.234598</t>
+          <t>2021-12-19T16:37:30.188150</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:23.606570</t>
+          <t>2021-12-19T16:37:31.590992</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:24.903457</t>
+          <t>2021-12-19T16:37:33.178335</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-12-18T17:53:26.284526</t>
+          <t>2021-12-19T16:37:34.743243</t>
         </is>
       </c>
     </row>
